--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/WBS表.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/WBS表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\非受控文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>任务ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,86 @@
   </si>
   <si>
     <t>系统维护计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性分析资料准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性分析讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目章程初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体项目计划初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘特图制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC图制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS图制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体项目计划第二版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,16 +733,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -721,7 +802,7 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -790,7 +871,7 @@
       <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -830,7 +911,7 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>1.2</v>
       </c>
     </row>
@@ -862,7 +943,7 @@
       <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>1.2</v>
       </c>
     </row>
@@ -894,7 +975,7 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>1.2</v>
       </c>
     </row>
@@ -926,7 +1007,7 @@
       <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>1.2</v>
       </c>
     </row>
@@ -1050,79 +1131,55 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
@@ -1132,103 +1189,247 @@
       <c r="I21" t="s">
         <v>19</v>
       </c>
-      <c r="J21">
-        <v>3.1</v>
+      <c r="J21" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>4.0999999999999996</v>
+      <c r="A23" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>4.3</v>
+      <c r="A25" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>4.4000000000000004</v>
+      <c r="A26" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>4.5</v>
+      <c r="A27" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>5</v>
+      <c r="A28" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>6</v>
+      <c r="A29" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>7</v>
+      <c r="A30" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
         <v>52</v>
       </c>
     </row>
